--- a/yoplix-quizzes-export.xlsx
+++ b/yoplix-quizzes-export.xlsx
@@ -1,43 +1,207 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azper\YandexDisk\yoplix\next\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996A032C-4B3B-4C55-901C-B2B3E0D00231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Викторины" sheetId="1" r:id="rId1"/>
     <sheet name="Статистика" sheetId="2" r:id="rId2"/>
     <sheet name="Типы викторин" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Slug</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Цена (₽)</t>
+  </si>
+  <si>
+    <t>Статус цены</t>
+  </si>
+  <si>
+    <t>Количество вопросов</t>
+  </si>
+  <si>
+    <t>Длительность</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>movie-trivia</t>
+  </si>
+  <si>
+    <t>Кино-викторина</t>
+  </si>
+  <si>
+    <t>Развлечения</t>
+  </si>
+  <si>
+    <t>Бесплатно</t>
+  </si>
+  <si>
+    <t>10 минут</t>
+  </si>
+  <si>
+    <t>Проверь свои знания о фильмах и актёрах! От классики до современных блокбастеров.</t>
+  </si>
+  <si>
+    <t>science-quiz</t>
+  </si>
+  <si>
+    <t>Научные факты</t>
+  </si>
+  <si>
+    <t>Образование</t>
+  </si>
+  <si>
+    <t>150₽</t>
+  </si>
+  <si>
+    <t>15 минут</t>
+  </si>
+  <si>
+    <t>Узнай интересные факты из мира науки и техники. От физики до биологии!</t>
+  </si>
+  <si>
+    <t>history-challenge</t>
+  </si>
+  <si>
+    <t>Исторический вызов</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>200₽</t>
+  </si>
+  <si>
+    <t>20 минут</t>
+  </si>
+  <si>
+    <t>Путешествие сквозь века: от древних цивилизаций до современности.</t>
+  </si>
+  <si>
+    <t>sports-master</t>
+  </si>
+  <si>
+    <t>Спортивный мастер</t>
+  </si>
+  <si>
+    <t>Спорт</t>
+  </si>
+  <si>
+    <t>12 минут</t>
+  </si>
+  <si>
+    <t>Все о спорте: футбол, баскетбол, олимпиады и спортивные рекорды.</t>
+  </si>
+  <si>
+    <t>music-notes</t>
+  </si>
+  <si>
+    <t>Музыкальные ноты</t>
+  </si>
+  <si>
+    <t>Музыка</t>
+  </si>
+  <si>
+    <t>100₽</t>
+  </si>
+  <si>
+    <t>Угадай исполнителей, песни и музыкальные жанры разных эпох.</t>
+  </si>
+  <si>
+    <t>geography-world</t>
+  </si>
+  <si>
+    <t>География мира</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>18 минут</t>
+  </si>
+  <si>
+    <t>Исследуй страны, столицы, флаги и достопримечательности планеты.</t>
+  </si>
+  <si>
+    <t>Параметр</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Всего викторин</t>
+  </si>
+  <si>
+    <t>Бесплатных викторин</t>
+  </si>
+  <si>
+    <t>Платных викторин</t>
+  </si>
+  <si>
+    <t>Средняя цена (₽)</t>
+  </si>
+  <si>
+    <t>Общее количество вопросов</t>
+  </si>
+  <si>
+    <t>Среднее количество вопросов</t>
+  </si>
+  <si>
+    <t>Средняя длительность (минуты)</t>
+  </si>
+  <si>
+    <t>Количество викторин</t>
+  </si>
+  <si>
+    <t>party-quizz</t>
+  </si>
+  <si>
+    <t>Весёлая викторина для вечеринки</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,13 +231,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,341 +570,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="60.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="60.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Slug</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Название</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Тип</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Цена (₽)</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Статус цены</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Количество вопросов</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Длительность</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Описание</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>movie-trivia</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Кино-викторина</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Развлечения</v>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="str">
-        <v>Бесплатно</v>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
       <c r="G2">
         <v>15</v>
       </c>
-      <c r="H2" t="str">
-        <v>10 минут</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Проверь свои знания о фильмах и актёрах! От классики до современных блокбастеров.</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>science-quiz</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Научные факты</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Образование</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A8" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
         <v>150</v>
       </c>
-      <c r="F3" t="str">
-        <v>150₽</v>
-      </c>
-      <c r="G3">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="H3" t="str">
-        <v>15 минут</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Узнай интересные факты из мира науки и техники. От физики до биологии!</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>history-challenge</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Исторический вызов</v>
-      </c>
-      <c r="D4" t="str">
-        <v>История</v>
-      </c>
-      <c r="E4">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
         <v>200</v>
       </c>
-      <c r="F4" t="str">
-        <v>200₽</v>
-      </c>
-      <c r="G4">
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
         <v>25</v>
       </c>
-      <c r="H4" t="str">
-        <v>20 минут</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Путешествие сквозь века: от древних цивилизаций до современности.</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>sports-master</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Спортивный мастер</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Спорт</v>
-      </c>
-      <c r="E5">
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F5" t="str">
-        <v>Бесплатно</v>
-      </c>
-      <c r="G5">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
         <v>18</v>
       </c>
-      <c r="H5" t="str">
-        <v>12 минут</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Все о спорте: футбол, баскетбол, олимпиады и спортивные рекорды.</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>music-notes</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Музыкальные ноты</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Музыка</v>
-      </c>
-      <c r="E6">
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
         <v>100</v>
       </c>
-      <c r="F6" t="str">
-        <v>100₽</v>
-      </c>
-      <c r="G6">
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7">
         <v>16</v>
       </c>
-      <c r="H6" t="str">
-        <v>10 минут</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Угадай исполнителей, песни и музыкальные жанры разных эпох.</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>geography-world</v>
-      </c>
-      <c r="C7" t="str">
-        <v>География мира</v>
-      </c>
-      <c r="D7" t="str">
-        <v>География</v>
-      </c>
-      <c r="E7">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F7" t="str">
-        <v>Бесплатно</v>
-      </c>
-      <c r="G7">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
         <v>22</v>
       </c>
-      <c r="H7" t="str">
-        <v>18 минут</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Исследуй страны, столицы, флаги и достопримечательности планеты.</v>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError sqref="B4:I8 A1:I1 B3:I3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Параметр</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Значение</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Всего викторин</v>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Бесплатных викторин</v>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Платных викторин</v>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Средняя цена (₽)</v>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
       </c>
       <c r="B5">
         <v>75</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Общее количество вопросов</v>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
       </c>
       <c r="B6">
         <v>116</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Среднее количество вопросов</v>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
       </c>
       <c r="B7">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Средняя длительность (минуты)</v>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+    <ignoredError sqref="A1:B8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="1" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Тип</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Количество викторин</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Средняя цена (₽)</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Развлечения</v>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -741,9 +951,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Образование</v>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -752,9 +962,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>История</v>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -763,9 +973,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Спорт</v>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -774,9 +984,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Музыка</v>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -785,9 +995,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>География</v>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -797,8 +1007,9 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>